--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H2">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J2">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N2">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q2">
-        <v>4.506020941984024</v>
+        <v>9.262952336977778</v>
       </c>
       <c r="R2">
-        <v>4.506020941984024</v>
+        <v>83.3665710328</v>
       </c>
       <c r="S2">
-        <v>0.3761567057699913</v>
+        <v>0.4184110992520291</v>
       </c>
       <c r="T2">
-        <v>0.3761567057699913</v>
+        <v>0.418411099252029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78021944531617</v>
+        <v>5.423951666666667</v>
       </c>
       <c r="H3">
-        <v>2.78021944531617</v>
+        <v>16.271855</v>
       </c>
       <c r="I3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413272</v>
       </c>
       <c r="J3">
-        <v>0.4265660676469394</v>
+        <v>0.4774188439413271</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N3">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q3">
-        <v>0.6038590747029572</v>
+        <v>1.30633706311</v>
       </c>
       <c r="R3">
-        <v>0.6038590747029572</v>
+        <v>11.75703356799</v>
       </c>
       <c r="S3">
-        <v>0.05040936187694816</v>
+        <v>0.05900774468929815</v>
       </c>
       <c r="T3">
-        <v>0.05040936187694816</v>
+        <v>0.05900774468929813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H4">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I4">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J4">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N4">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q4">
-        <v>2.518409941353925</v>
+        <v>2.704287587075555</v>
       </c>
       <c r="R4">
-        <v>2.518409941353925</v>
+        <v>24.33858828368</v>
       </c>
       <c r="S4">
-        <v>0.2102335518442977</v>
+        <v>0.1221537044388027</v>
       </c>
       <c r="T4">
-        <v>0.2102335518442977</v>
+        <v>0.1221537044388027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.5538614623364</v>
+        <v>1.583504333333333</v>
       </c>
       <c r="H5">
-        <v>1.5538614623364</v>
+        <v>4.750513</v>
       </c>
       <c r="I5">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="J5">
-        <v>0.2384072864369107</v>
+        <v>0.1393808158066948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N5">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O5">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P5">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q5">
-        <v>0.3374961449333854</v>
+        <v>0.3813806846659999</v>
       </c>
       <c r="R5">
-        <v>0.3374961449333854</v>
+        <v>3.432426161994</v>
       </c>
       <c r="S5">
-        <v>0.02817373459261297</v>
+        <v>0.0172271113678921</v>
       </c>
       <c r="T5">
-        <v>0.02817373459261297</v>
+        <v>0.01722711136789209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H6">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I6">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J6">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N6">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O6">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P6">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q6">
-        <v>0.9663801527504331</v>
+        <v>1.137509449902222</v>
       </c>
       <c r="R6">
-        <v>0.9663801527504331</v>
+        <v>10.23758504912</v>
       </c>
       <c r="S6">
-        <v>0.08067214499452559</v>
+        <v>0.05138173684033515</v>
       </c>
       <c r="T6">
-        <v>0.08067214499452559</v>
+        <v>0.05138173684033515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.59625752450706</v>
+        <v>0.6660723333333333</v>
       </c>
       <c r="H7">
-        <v>0.59625752450706</v>
+        <v>1.998217</v>
       </c>
       <c r="I7">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="J7">
-        <v>0.09148314819622125</v>
+        <v>0.05862800830537802</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N7">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O7">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P7">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q7">
-        <v>0.1295061501854085</v>
+        <v>0.160420857194</v>
       </c>
       <c r="R7">
-        <v>0.1295061501854085</v>
+        <v>1.443787714746</v>
       </c>
       <c r="S7">
-        <v>0.01081100320169567</v>
+        <v>0.007246271465042877</v>
       </c>
       <c r="T7">
-        <v>0.01081100320169567</v>
+        <v>0.007246271465042876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H8">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I8">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J8">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N8">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O8">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P8">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q8">
-        <v>2.572666192282187</v>
+        <v>6.29740128375111</v>
       </c>
       <c r="R8">
-        <v>2.572666192282187</v>
+        <v>56.67661155376</v>
       </c>
       <c r="S8">
-        <v>0.214762792360348</v>
+        <v>0.2844560241389659</v>
       </c>
       <c r="T8">
-        <v>0.214762792360348</v>
+        <v>0.2844560241389659</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58733762363322</v>
+        <v>3.687463666666666</v>
       </c>
       <c r="H9">
-        <v>1.58733762363322</v>
+        <v>11.062391</v>
       </c>
       <c r="I9">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="J9">
-        <v>0.2435434977199288</v>
+        <v>0.3245723319466</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N9">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O9">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P9">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q9">
-        <v>0.3447671119138375</v>
+        <v>0.8881108742619999</v>
       </c>
       <c r="R9">
-        <v>0.3447671119138375</v>
+        <v>7.992997868357999</v>
       </c>
       <c r="S9">
-        <v>0.02878070535958083</v>
+        <v>0.04011630780763407</v>
       </c>
       <c r="T9">
-        <v>0.02878070535958083</v>
+        <v>0.04011630780763407</v>
       </c>
     </row>
   </sheetData>
